--- a/output/SN_26210471000118.xlsx
+++ b/output/SN_26210471000118.xlsx
@@ -889,10 +889,10 @@
         <v>44165</v>
       </c>
       <c r="B46">
-        <v>0.3152159999999999</v>
+        <v>0.3149607999999999</v>
       </c>
       <c r="C46">
-        <v>0.00208101473487643</v>
+        <v>0.001886574373019423</v>
       </c>
     </row>
   </sheetData>

--- a/output/SN_26210471000118.xlsx
+++ b/output/SN_26210471000118.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SN CAPITAL FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,513 +383,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42825</v>
       </c>
       <c r="B2">
-        <v>0.0006345999999999297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42855</v>
       </c>
       <c r="B3">
-        <v>-0.00359149999999997</v>
-      </c>
-      <c r="C3">
         <v>-0.004223419817783514</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42886</v>
       </c>
       <c r="B4">
-        <v>0.006063099999999988</v>
-      </c>
-      <c r="C4">
         <v>0.009689399478226113</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42916</v>
       </c>
       <c r="B5">
-        <v>0.01968820000000004</v>
-      </c>
-      <c r="C5">
         <v>0.01354298751241356</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42947</v>
       </c>
       <c r="B6">
-        <v>0.04891909999999999</v>
-      </c>
-      <c r="C6">
         <v>0.02866650805608995</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42978</v>
       </c>
       <c r="B7">
-        <v>0.05339450000000001</v>
-      </c>
-      <c r="C7">
         <v>0.004266677954477105</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43008</v>
       </c>
       <c r="B8">
-        <v>0.07812299999999994</v>
-      </c>
-      <c r="C8">
         <v>0.02347506086276319</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43039</v>
       </c>
       <c r="B9">
-        <v>0.07460969999999989</v>
-      </c>
-      <c r="C9">
         <v>-0.003258719088638395</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43069</v>
       </c>
       <c r="B10">
-        <v>0.08578799999999998</v>
-      </c>
-      <c r="C10">
         <v>0.0104021953272897</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43100</v>
       </c>
       <c r="B11">
-        <v>0.1000919</v>
-      </c>
-      <c r="C11">
         <v>0.01317375030853163</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43131</v>
       </c>
       <c r="B12">
-        <v>0.1455156</v>
-      </c>
-      <c r="C12">
         <v>0.04129082306669107</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43159</v>
       </c>
       <c r="B13">
-        <v>0.1477390000000001</v>
-      </c>
-      <c r="C13">
         <v>0.001940960035812678</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43190</v>
       </c>
       <c r="B14">
-        <v>0.1520729000000001</v>
-      </c>
-      <c r="C14">
         <v>0.003776032704299492</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43220</v>
       </c>
       <c r="B15">
-        <v>0.1648061000000001</v>
-      </c>
-      <c r="C15">
         <v>0.01105242558869324</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43251</v>
       </c>
       <c r="B16">
-        <v>0.1578147999999999</v>
-      </c>
-      <c r="C16">
         <v>-0.006002114858430163</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43281</v>
       </c>
       <c r="B17">
-        <v>0.1839603999999999</v>
-      </c>
-      <c r="C17">
         <v>0.02258184987789069</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43312</v>
       </c>
       <c r="B18">
-        <v>0.1794001999999999</v>
-      </c>
-      <c r="C18">
         <v>-0.003851649092317611</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43343</v>
       </c>
       <c r="B19">
-        <v>0.2042621</v>
-      </c>
-      <c r="C19">
         <v>0.0210801219128165</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43373</v>
       </c>
       <c r="B20">
-        <v>0.2163109999999999</v>
-      </c>
-      <c r="C20">
         <v>0.0100052139812421</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43404</v>
       </c>
       <c r="B21">
-        <v>0.2090844000000001</v>
-      </c>
-      <c r="C21">
         <v>-0.005941408077374866</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43434</v>
       </c>
       <c r="B22">
-        <v>0.1777776</v>
-      </c>
-      <c r="C22">
         <v>-0.02589298149905839</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43465</v>
       </c>
       <c r="B23">
-        <v>0.1406109</v>
-      </c>
-      <c r="C23">
         <v>-0.03155663683873766</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43496</v>
       </c>
       <c r="B24">
-        <v>0.1525562</v>
-      </c>
-      <c r="C24">
         <v>0.01047272124087195</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43524</v>
       </c>
       <c r="B25">
-        <v>0.1553225</v>
-      </c>
-      <c r="C25">
         <v>0.002400143264163601</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43555</v>
       </c>
       <c r="B26">
-        <v>0.1635237</v>
-      </c>
-      <c r="C26">
         <v>0.007098623977287666</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43585</v>
       </c>
       <c r="B27">
-        <v>0.1631707</v>
-      </c>
-      <c r="C27">
         <v>-0.0003033887491935561</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43616</v>
       </c>
       <c r="B28">
-        <v>0.1815258</v>
-      </c>
-      <c r="C28">
         <v>0.01578022898960563</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43646</v>
       </c>
       <c r="B29">
-        <v>0.1990213999999999</v>
-      </c>
-      <c r="C29">
         <v>0.01480763263908402</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43677</v>
       </c>
       <c r="B30">
-        <v>0.2070061000000001</v>
-      </c>
-      <c r="C30">
         <v>0.006659347364442514</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43708</v>
       </c>
       <c r="B31">
-        <v>0.2249961</v>
-      </c>
-      <c r="C31">
         <v>0.01490464712647266</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43738</v>
       </c>
       <c r="B32">
-        <v>0.2197750000000001</v>
-      </c>
-      <c r="C32">
         <v>-0.00426213601822889</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43769</v>
       </c>
       <c r="B33">
-        <v>0.2291251999999999</v>
-      </c>
-      <c r="C33">
         <v>0.007665512082146275</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43799</v>
       </c>
       <c r="B34">
-        <v>0.2203343</v>
-      </c>
-      <c r="C34">
         <v>-0.007152159926425705</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43830</v>
       </c>
       <c r="B35">
-        <v>0.2281755999999999</v>
-      </c>
-      <c r="C35">
         <v>0.006425534380210429</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43861</v>
       </c>
       <c r="B36">
-        <v>0.2299403</v>
-      </c>
-      <c r="C36">
         <v>0.001436846652872914</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43890</v>
       </c>
       <c r="B37">
-        <v>0.2443422</v>
-      </c>
-      <c r="C37">
         <v>0.01170943012437275</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43921</v>
       </c>
       <c r="B38">
-        <v>0.2465264</v>
-      </c>
-      <c r="C38">
         <v>0.001755304931392754</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43951</v>
       </c>
       <c r="B39">
-        <v>0.2616839</v>
-      </c>
-      <c r="C39">
         <v>0.01215979059889949</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43982</v>
       </c>
       <c r="B40">
-        <v>0.2492403000000001</v>
-      </c>
-      <c r="C40">
         <v>-0.009862692232182613</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>44012</v>
       </c>
       <c r="B41">
-        <v>0.2641275000000001</v>
-      </c>
-      <c r="C41">
         <v>0.01191700267754725</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>44043</v>
       </c>
       <c r="B42">
-        <v>0.2758749</v>
-      </c>
-      <c r="C42">
         <v>0.009292891737581854</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>44074</v>
       </c>
       <c r="B43">
-        <v>0.2947369</v>
-      </c>
-      <c r="C43">
         <v>0.01478358105485111</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44104</v>
       </c>
       <c r="B44">
-        <v>0.2929816999999999</v>
-      </c>
-      <c r="C44">
         <v>-0.001355642215804642</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44135</v>
       </c>
       <c r="B45">
-        <v>0.3124846999999999</v>
-      </c>
-      <c r="C45">
         <v>0.01508374016430403</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44165</v>
       </c>
       <c r="B46">
-        <v>0.3149607999999999</v>
-      </c>
-      <c r="C46">
-        <v>0.001886574373019423</v>
+        <v>-0.005364633964875853</v>
       </c>
     </row>
   </sheetData>
